--- a/Medium Instances/Medium1.xlsx
+++ b/Medium Instances/Medium1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Documents/NTNU/Prosjektoppgave/samkjoring2022/Medium Instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55C606C-1D5F-3C4D-9390-ADD4CFA364F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFCFF6D-BC52-44F6-B30D-15E6A23CB5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="1920" windowWidth="19305" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium1" sheetId="10" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="92">
   <si>
     <t>Rider</t>
   </si>
@@ -1110,21 +1108,21 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,54 +1166,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Telavåg</v>
       </c>
       <c r="C2" s="3">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D2" s="4">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.261564</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F13" si="0">C2*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E2:F13" ca="1" si="1">C2*111.021</f>
+        <v>553.10906446199999</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6690.2990968439999</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" ref="G2:G7" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K13" si="1">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J2:K13" ca="1" si="3">H2*111.021</f>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>96</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1240,54 +1240,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Knappskog</v>
       </c>
       <c r="C3" s="3">
-        <f>_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.382877999999998</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>561.31429350899998</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.7674984380001</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3" si="3">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
-        <f>_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" ref="M3">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>54</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1314,54 +1316,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
-        <f t="array" ref="M4">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1385,54 +1389,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C6" si="4">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D6" si="5">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E6" si="6">C5*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E5:E6" ca="1" si="8">C5*111.021</f>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F6" si="7">D5*111.021</f>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ref="F5:F6" ca="1" si="9">D5*111.021</f>
+        <v>6700.8457587809999</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H6" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f t="shared" ref="H5:H6" ca="1" si="10">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I5:I6" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I5:I6" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:J6" si="10">H5*111.021</f>
+        <f t="shared" ref="J5:J6" ca="1" si="12">H5*111.021</f>
         <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ref="K5:K6" si="11">I5*111.021</f>
+        <f t="shared" ref="K5:K6" ca="1" si="13">I5*111.021</f>
         <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
-        <f t="array" ref="M5">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>44</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1456,54 +1462,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="4"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="5"/>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="6"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="7"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="8"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
-        <f t="shared" si="9"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="10"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="11"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
-        <f t="array" ref="M6">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>50</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1527,56 +1535,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ref="B5:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <f t="shared" ref="B7:B16" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C5:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <f t="shared" ref="C7:C16" ca="1" si="15">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <f t="shared" ref="D7:D13" ca="1" si="16">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G5:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H5:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <f t="shared" ref="H7:H16" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
-        <f t="shared" ref="I5:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <f t="shared" ref="I7:I13" ca="1" si="18">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1588,56 +1596,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <f t="shared" ref="G7:G16" ca="1" si="19">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
-        <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1649,56 +1657,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
-        <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1710,49 +1718,49 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
-        <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
@@ -1771,56 +1779,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>60.354616</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
-        <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1833,56 +1841,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
-        <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1897,215 +1905,215 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
-        <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <f t="shared" ref="D14:D16" ca="1" si="20">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>561.31429350899998</v>
+        <f t="shared" ref="E14:E16" ca="1" si="21">C14*111.021</f>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.7674984380001</v>
+        <f t="shared" ref="F14:F16" ca="1" si="22">D14*111.021</f>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
-        <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <f t="shared" ref="I14:I16" ca="1" si="23">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>584.50258365299999</v>
+        <f t="shared" ref="J14:J16" ca="1" si="24">H14*111.021</f>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6703.3479500789999</v>
+        <f t="shared" ref="K14:K16" ca="1" si="25">I14*111.021</f>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
+        <f t="shared" ca="1" si="21"/>
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ca="1" si="22"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
-        <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
+        <f t="shared" ca="1" si="21"/>
+        <v>554.37814551299994</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ca="1" si="22"/>
+        <v>6704.4084226710002</v>
+      </c>
+      <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
-        <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -2115,7 +2123,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -2125,7 +2133,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -2148,7 +2156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2173,7 +2181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2198,7 +2206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -2229,7 +2237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2260,7 +2268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2292,7 +2300,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -2308,19 +2316,19 @@
         <v>20</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T47" si="24">S25+7</f>
+        <f t="shared" ref="T25:T47" si="26">S25+7</f>
         <v>27</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" ref="U25:U47" si="25">S25+4</f>
+        <f t="shared" ref="U25:U47" si="27">S25+4</f>
         <v>24</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V47" si="26">S25+8</f>
+        <f t="shared" ref="V25:V47" si="28">S25+8</f>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -2336,19 +2344,19 @@
         <v>21</v>
       </c>
       <c r="T26" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="U26" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2364,19 +2372,19 @@
         <v>17</v>
       </c>
       <c r="T27" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="V27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2392,19 +2400,19 @@
         <v>15</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="V28" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2420,19 +2428,19 @@
         <v>20</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>27</v>
       </c>
       <c r="U29" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>24</v>
       </c>
       <c r="V29" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2448,19 +2456,19 @@
         <v>15</v>
       </c>
       <c r="T30" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="V30" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -2476,19 +2484,19 @@
         <v>21</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="U31" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -2504,19 +2512,19 @@
         <v>29</v>
       </c>
       <c r="T32" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>36</v>
       </c>
       <c r="U32" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33</v>
       </c>
       <c r="V32" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2532,19 +2540,19 @@
         <v>11</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="U33" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -2558,19 +2566,19 @@
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="U34" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="V34" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -2586,19 +2594,19 @@
         <v>14</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="V35" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -2614,19 +2622,19 @@
         <v>33</v>
       </c>
       <c r="T36" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>40</v>
       </c>
       <c r="U36" s="38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="V36" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -2642,19 +2650,19 @@
         <v>17</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="V37" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -2670,19 +2678,19 @@
         <v>32</v>
       </c>
       <c r="T38" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="U38" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>36</v>
       </c>
       <c r="V38" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -2698,19 +2706,19 @@
         <v>37</v>
       </c>
       <c r="T39" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>44</v>
       </c>
       <c r="U39" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
       <c r="V39" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -2724,19 +2732,19 @@
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="U40" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="V40" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -2752,19 +2760,19 @@
         <v>40</v>
       </c>
       <c r="T41" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>47</v>
       </c>
       <c r="U41" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
       <c r="V41" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -2780,19 +2788,19 @@
         <v>28</v>
       </c>
       <c r="T42" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32</v>
       </c>
       <c r="V42" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -2808,19 +2816,19 @@
         <v>36</v>
       </c>
       <c r="T43" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>43</v>
       </c>
       <c r="U43" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
       <c r="V43" s="50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -2836,19 +2844,19 @@
         <v>44</v>
       </c>
       <c r="T44" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>51</v>
       </c>
       <c r="U44" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>48</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -2856,19 +2864,19 @@
         <v>30</v>
       </c>
       <c r="T45" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>37</v>
       </c>
       <c r="U45" s="56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>34</v>
       </c>
       <c r="V45" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -2876,19 +2884,19 @@
         <v>15</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="V46" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -2896,19 +2904,19 @@
         <v>26</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>33</v>
       </c>
       <c r="U47" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30</v>
       </c>
       <c r="V47" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -2925,18 +2933,18 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3052,7 +3060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3126,7 +3134,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3197,32 +3205,32 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ref="B4:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C4:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G4:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
         <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
@@ -3230,7 +3238,7 @@
         <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I4:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
@@ -3246,7 +3254,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -3267,29 +3275,29 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3316,7 +3324,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -3337,49 +3345,49 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
@@ -3398,49 +3406,49 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -3459,56 +3467,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3520,56 +3528,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3581,56 +3589,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3643,56 +3651,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3707,7 +3715,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3733,34 +3741,34 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3769,7 +3777,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -3779,7 +3787,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -3789,7 +3797,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -3799,7 +3807,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -3822,7 +3830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -3847,7 +3855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -3872,7 +3880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -3903,7 +3911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3934,7 +3942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3966,7 +3974,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -3994,7 +4002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -4022,7 +4030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -4050,7 +4058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -4078,7 +4086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -4106,7 +4114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -4134,7 +4142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -4162,7 +4170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -4190,7 +4198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -4218,7 +4226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -4244,7 +4252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -4272,7 +4280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -4300,7 +4308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -4328,7 +4336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -4356,7 +4364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -4384,7 +4392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -4410,7 +4418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -4438,7 +4446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -4466,7 +4474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -4494,7 +4502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -4522,7 +4530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -4542,7 +4550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -4582,7 +4590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -4599,18 +4607,18 @@
       <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4800,29 +4808,29 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -4849,7 +4857,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -4870,56 +4878,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -4940,56 +4948,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5010,7 +5018,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -5036,30 +5044,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5071,56 +5079,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5132,56 +5140,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5193,29 +5201,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5242,7 +5250,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5254,56 +5262,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5316,7 +5324,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -5337,8 +5345,8 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -5347,7 +5355,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -5357,7 +5365,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -5367,7 +5375,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -5377,7 +5385,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -5400,7 +5408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -5425,7 +5433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -5450,7 +5458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -5481,7 +5489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -5512,7 +5520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -5544,7 +5552,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -5572,7 +5580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -5600,7 +5608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -5628,7 +5636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -5656,7 +5664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -5684,7 +5692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -5712,7 +5720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -5740,7 +5748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -5768,7 +5776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -5796,7 +5804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -5822,7 +5830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -5850,7 +5858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -5878,7 +5886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -5906,7 +5914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -5934,7 +5942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -5962,7 +5970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -5988,7 +5996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -6016,7 +6024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -6044,7 +6052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -6072,7 +6080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -6100,7 +6108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -6120,7 +6128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -6140,7 +6148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -6160,7 +6168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -6180,19 +6188,19 @@
       <selection activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6236,7 +6244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -6308,7 +6316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -6382,7 +6390,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -6408,30 +6416,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6452,56 +6460,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -6522,7 +6530,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -6548,30 +6556,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -6592,7 +6600,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -6610,7 +6618,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -6628,7 +6636,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -6646,7 +6654,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -6664,7 +6672,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -6683,7 +6691,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -6704,12 +6712,12 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -6718,7 +6726,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -6728,7 +6736,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -6738,7 +6746,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -6748,7 +6756,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -6771,7 +6779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -6796,7 +6804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -6821,7 +6829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -6852,7 +6860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -6883,7 +6891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -6915,7 +6923,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -6943,7 +6951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -6971,7 +6979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -6999,7 +7007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -7027,7 +7035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -7055,7 +7063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -7083,7 +7091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -7111,7 +7119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -7139,7 +7147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -7167,7 +7175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -7193,7 +7201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -7221,7 +7229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -7249,7 +7257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -7277,7 +7285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -7305,7 +7313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -7333,7 +7341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -7359,7 +7367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -7387,7 +7395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -7415,7 +7423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -7443,7 +7451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -7471,7 +7479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -7491,7 +7499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -7511,7 +7519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -7531,7 +7539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -7548,15 +7556,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -7576,82 +7584,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -7659,7 +7667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -7670,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -7681,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -7692,7 +7700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -7703,7 +7711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -7714,7 +7722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -7725,7 +7733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -7736,7 +7744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -7747,7 +7755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -7758,7 +7766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7769,7 +7777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -7780,7 +7788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -7791,7 +7799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7802,7 +7810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -7813,7 +7821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -7838,9 +7846,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -7855,7 +7863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -7872,7 +7880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -7889,7 +7897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -7906,7 +7914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -7923,7 +7931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -7940,7 +7948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -7960,7 +7968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -7980,7 +7988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -8000,7 +8008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -8020,7 +8028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -8040,7 +8048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -8060,7 +8068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -8080,7 +8088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -8100,7 +8108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -8120,7 +8128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -8138,7 +8146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -8158,7 +8166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -8178,7 +8186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -8198,7 +8206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -8218,7 +8226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -8238,7 +8246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -8256,7 +8264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -8276,7 +8284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -8296,7 +8304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -8316,7 +8324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -8336,7 +8344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -8356,7 +8364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -8376,7 +8384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
@@ -8410,9 +8418,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -8432,7 +8440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -8452,7 +8460,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -8472,7 +8480,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -8492,7 +8500,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -8512,7 +8520,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -8523,7 +8531,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -8534,7 +8542,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -8545,7 +8553,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -8556,7 +8564,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -8567,7 +8575,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>

--- a/Medium Instances/Medium1.xlsx
+++ b/Medium Instances/Medium1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFCFF6D-BC52-44F6-B30D-15E6A23CB5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2962382-E2AA-4D3C-B540-A4C93F7AAC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="1920" windowWidth="19305" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium1" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId6"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1172,50 +1172,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F13" ca="1" si="1">C2*111.021</f>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G7" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K13" ca="1" si="3">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1246,50 +1246,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1322,23 +1322,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1395,50 +1395,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" ca="1" si="8">C5*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F6" ca="1" si="9">D5*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="10">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:J6" ca="1" si="12">H5*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ref="K5:K6" ca="1" si="13">I5*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1468,50 +1468,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1561,30 +1561,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="18">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1602,50 +1602,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" ref="G7:G16" ca="1" si="19">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <f t="shared" ref="G8:G16" ca="1" si="19">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="18"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1663,50 +1663,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="18"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1724,50 +1724,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="18"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1785,23 +1785,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1847,50 +1847,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="18"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1911,50 +1911,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="18"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1963,50 +1963,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="20">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="21">C14*111.021</f>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="22">D14*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="23">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="24">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="25">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2015,50 +2015,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="23"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2067,23 +2067,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -3211,50 +3211,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -3281,50 +3281,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -3351,50 +3351,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3412,50 +3412,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3473,50 +3473,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3534,50 +3534,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3595,50 +3595,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3657,50 +3657,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3721,50 +3721,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4814,50 +4814,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -4884,50 +4884,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -4954,23 +4954,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5044,30 +5044,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5085,23 +5085,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5146,50 +5146,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5207,50 +5207,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5268,23 +5268,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6396,23 +6396,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6466,23 +6466,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6536,50 +6536,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances/Medium1.xlsx
+++ b/Medium Instances/Medium1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2962382-E2AA-4D3C-B540-A4C93F7AAC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D005F9-379C-4A04-9859-8C8455145B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="870" windowWidth="12060" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium1" sheetId="10" r:id="rId1"/>
@@ -1172,50 +1172,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F13" ca="1" si="1">C2*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G7" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K13" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1246,50 +1246,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1322,50 +1322,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1395,50 +1395,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" ca="1" si="8">C5*111.021</f>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F6" ca="1" si="9">D5*111.021</f>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="10">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:J6" ca="1" si="12">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ref="K5:K6" ca="1" si="13">I5*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1468,50 +1468,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1541,50 +1541,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="15">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="16">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="18">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1602,23 +1602,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ref="G8:G16" ca="1" si="19">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1663,23 +1663,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1724,50 +1724,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="18"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1785,50 +1785,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="18"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1847,23 +1847,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1911,23 +1911,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1963,50 +1963,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="20">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="21">C14*111.021</f>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="22">D14*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="23">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="24">H14*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="25">I14*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2015,50 +2015,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="23"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2067,23 +2067,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -3211,50 +3211,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -3281,50 +3281,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -3351,50 +3351,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3412,43 +3412,43 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -3473,50 +3473,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3534,50 +3534,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3595,50 +3595,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3657,23 +3657,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3741,30 +3741,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4814,50 +4814,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -4884,43 +4884,43 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
@@ -4954,50 +4954,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -5044,30 +5044,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5105,30 +5105,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5146,50 +5146,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5207,23 +5207,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5268,50 +5268,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6396,50 +6396,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6466,50 +6466,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -6536,50 +6536,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances/Medium1.xlsx
+++ b/Medium Instances/Medium1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08F2F87-7FC7-4177-BC2F-32A2BC86BB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC2420E-4FEB-45B7-B9D4-9A87208E061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="J31" sqref="J29:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1179,50 +1179,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Bildøyna</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1060850000000002</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F13" ca="1" si="0">C2*111.021</f>
-        <v>566.88266278499998</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G7" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K13" ca="1" si="2">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1253,23 +1253,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B16" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Arefjord</v>
+        <v>Rongøy</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C16" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1424630000000002</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D16" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.358854999999998</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1329,23 +1329,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.464510389</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6708.2624056649993</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1402,50 +1402,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Blomøy</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" ca="1" si="7">C5*111.021</f>
-        <v>570.662150688</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F6" ca="1" si="8">D5*111.021</f>
-        <v>6698.5706054279999</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="10">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:J6" ca="1" si="11">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ref="K5:K6" ca="1" si="12">I5*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1475,50 +1475,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>562.62611764500002</v>
+        <v>570.662150688</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6686.5111713450005</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1548,23 +1548,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Vorland</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1609,50 +1609,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Hammersland</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>562.743133779</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ref="G8:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="14"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1670,50 +1670,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Solsvik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="14"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1731,50 +1731,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Vågo</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.388821</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.62611764500002</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6686.5111713450005</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="14"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1792,50 +1792,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="14"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1854,23 +1854,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1918,23 +1918,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.25574612200001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1979,50 +1979,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="16">C14*111.021</f>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="17">D14*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="18">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="19">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="20">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2040,23 +2040,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Blomøy</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>551.37569358899998</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6709.1102730419998</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2101,50 +2101,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.25994</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.93444188599995</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6704.4272962410005</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="18"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -3328,23 +3328,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -3398,23 +3398,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3468,50 +3468,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3529,50 +3529,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3590,23 +3590,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3651,23 +3651,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3712,50 +3712,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3774,50 +3774,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3838,23 +3838,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4931,50 +4931,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -5001,23 +5001,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -5071,23 +5071,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5141,23 +5141,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5202,50 +5202,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5263,23 +5263,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5324,50 +5324,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5385,50 +5385,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6513,23 +6513,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -6653,50 +6653,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
